--- a/2022/Realme/APRIL/29.04.2022/realme Bank Statement April-20222.xlsx
+++ b/2022/Realme/APRIL/29.04.2022/realme Bank Statement April-20222.xlsx
@@ -2639,6 +2639,12 @@
     <xf numFmtId="1" fontId="33" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2648,6 +2654,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2675,12 +2693,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2693,12 +2705,6 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="36" fillId="35" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2803,12 +2809,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3360,29 +3360,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="273"/>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
+      <c r="A1" s="275"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
     </row>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="272" t="s">
+      <c r="B3" s="274" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="272"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -4352,67 +4352,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="274"/>
-      <c r="Q1" s="274"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
+      <c r="N1" s="280"/>
+      <c r="O1" s="280"/>
+      <c r="P1" s="280"/>
+      <c r="Q1" s="280"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="281" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
-      <c r="O3" s="277"/>
-      <c r="P3" s="277"/>
-      <c r="Q3" s="278"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="283"/>
+      <c r="Q3" s="284"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4421,52 +4421,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="285" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="281" t="s">
+      <c r="B4" s="287" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="283" t="s">
+      <c r="C4" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="283" t="s">
+      <c r="D4" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="283" t="s">
+      <c r="E4" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="283" t="s">
+      <c r="F4" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="283" t="s">
+      <c r="G4" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="276" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="283" t="s">
+      <c r="I4" s="276" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="283" t="s">
+      <c r="J4" s="276" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="283" t="s">
+      <c r="K4" s="276" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="283" t="s">
+      <c r="L4" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="283" t="s">
+      <c r="M4" s="276" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="289" t="s">
+      <c r="N4" s="278" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="287" t="s">
+      <c r="O4" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="285" t="s">
+      <c r="P4" s="289" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4479,22 +4479,22 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="280"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="290"/>
-      <c r="O5" s="288"/>
-      <c r="P5" s="286"/>
+      <c r="A5" s="286"/>
+      <c r="B5" s="288"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="279"/>
+      <c r="O5" s="292"/>
+      <c r="P5" s="290"/>
       <c r="Q5" s="94" t="s">
         <v>36</v>
       </c>
@@ -7614,6 +7614,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7630,9 +7633,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7671,14 +7671,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="300" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="300"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="302"/>
       <c r="L1" s="38"/>
       <c r="M1" s="141"/>
       <c r="N1" s="141"/>
@@ -7731,14 +7731,14 @@
       <c r="BI1" s="141"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1">
-      <c r="A2" s="301" t="s">
+      <c r="A2" s="303" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="303"/>
       <c r="L2" s="38"/>
       <c r="M2" s="141"/>
       <c r="N2" s="141"/>
@@ -7791,14 +7791,14 @@
       <c r="BI2" s="141"/>
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="304"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="306"/>
       <c r="K3" s="141"/>
       <c r="L3" s="38"/>
       <c r="M3" s="141"/>
@@ -9968,13 +9968,13 @@
       <c r="BI34" s="141"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="308" t="s">
+      <c r="A35" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="309"/>
-      <c r="C35" s="309"/>
-      <c r="D35" s="309"/>
-      <c r="E35" s="310"/>
+      <c r="B35" s="311"/>
+      <c r="C35" s="311"/>
+      <c r="D35" s="311"/>
+      <c r="E35" s="312"/>
       <c r="F35" s="43"/>
       <c r="G35" s="60"/>
       <c r="H35" s="60"/>
@@ -10033,12 +10033,12 @@
       <c r="BI35" s="141"/>
     </row>
     <row r="36" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A36" s="305" t="s">
+      <c r="A36" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="306"/>
-      <c r="C36" s="306"/>
-      <c r="D36" s="307"/>
+      <c r="B36" s="308"/>
+      <c r="C36" s="308"/>
+      <c r="D36" s="309"/>
       <c r="E36" s="171">
         <f>F33-C119+K122</f>
         <v>0</v>
@@ -10535,15 +10535,15 @@
         <v>75</v>
       </c>
       <c r="E43" s="48"/>
-      <c r="F43" s="305" t="s">
+      <c r="F43" s="307" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="306"/>
-      <c r="H43" s="306"/>
-      <c r="I43" s="306"/>
-      <c r="J43" s="306"/>
-      <c r="K43" s="306"/>
-      <c r="L43" s="307"/>
+      <c r="G43" s="308"/>
+      <c r="H43" s="308"/>
+      <c r="I43" s="308"/>
+      <c r="J43" s="308"/>
+      <c r="K43" s="308"/>
+      <c r="L43" s="309"/>
       <c r="M43" s="141"/>
       <c r="N43" s="141"/>
       <c r="O43" s="141"/>
@@ -12163,10 +12163,10 @@
       <c r="C68" s="205"/>
       <c r="D68" s="210"/>
       <c r="E68" s="53"/>
-      <c r="F68" s="291" t="s">
+      <c r="F68" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="292"/>
+      <c r="G68" s="294"/>
       <c r="H68" s="142"/>
       <c r="I68" s="142"/>
       <c r="J68" s="74" t="s">
@@ -15354,10 +15354,10 @@
       <c r="BI118" s="141"/>
     </row>
     <row r="119" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A119" s="293" t="s">
+      <c r="A119" s="295" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="294"/>
+      <c r="B119" s="296"/>
       <c r="C119" s="219">
         <f>SUM(C37:C118)</f>
         <v>962360</v>
@@ -15483,10 +15483,10 @@
       <c r="BI120" s="141"/>
     </row>
     <row r="121" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A121" s="295" t="s">
+      <c r="A121" s="297" t="s">
         <v>24</v>
       </c>
-      <c r="B121" s="296"/>
+      <c r="B121" s="298"/>
       <c r="C121" s="169" t="s">
         <v>11</v>
       </c>
@@ -16142,8 +16142,8 @@
       <c r="N155" s="143"/>
     </row>
     <row r="156" spans="5:14">
-      <c r="F156" s="297"/>
-      <c r="G156" s="297"/>
+      <c r="F156" s="299"/>
+      <c r="G156" s="299"/>
       <c r="H156" s="141"/>
       <c r="I156" s="51"/>
       <c r="J156" s="38"/>
@@ -16803,7 +16803,7 @@
   <dimension ref="A1:AB220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16828,35 +16828,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="313" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="313"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="315"/>
       <c r="F1" s="183"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21.75">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="322" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="322"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="324"/>
       <c r="F2" s="183"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="316" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="316"/>
+      <c r="B3" s="317"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="318"/>
       <c r="F3" s="183"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -16882,13 +16882,13 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="24" thickBot="1">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="325" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="325"/>
+      <c r="B4" s="326"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="327"/>
       <c r="F4" s="183"/>
       <c r="G4" s="249" t="s">
         <v>120</v>
@@ -16926,7 +16926,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="179">
-        <v>17314800</v>
+        <v>17163680</v>
       </c>
       <c r="F5" s="183"/>
       <c r="G5" s="250">
@@ -16958,7 +16958,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="156">
-        <v>204731.4</v>
+        <v>208491.4</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="152" t="s">
@@ -16997,7 +16997,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="180">
-        <v>950358.39999999851</v>
+        <v>1105238.3999999985</v>
       </c>
       <c r="F7" s="183"/>
       <c r="H7" s="1"/>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="B11" s="255">
         <f>B6-B9-B10</f>
-        <v>141860.4</v>
+        <v>145620.4</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="152" t="s">
@@ -17325,7 +17325,7 @@
       </c>
       <c r="B18" s="156">
         <f>B5+B6-B9-B10+B14</f>
-        <v>19641860.399999999</v>
+        <v>19645620.399999999</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="152" t="s">
@@ -17333,7 +17333,7 @@
       </c>
       <c r="E18" s="157">
         <f>SUM(E5:E17)</f>
-        <v>19641860.399999999</v>
+        <v>19645620.399999999</v>
       </c>
       <c r="F18" s="183"/>
       <c r="G18" s="135">
@@ -17390,13 +17390,13 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A20" s="317" t="s">
+      <c r="A20" s="319" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="318"/>
-      <c r="C20" s="318"/>
-      <c r="D20" s="318"/>
-      <c r="E20" s="319"/>
+      <c r="B20" s="320"/>
+      <c r="C20" s="320"/>
+      <c r="D20" s="320"/>
+      <c r="E20" s="321"/>
       <c r="F20" s="183"/>
       <c r="G20" s="8"/>
       <c r="H20" s="1"/>
@@ -17459,7 +17459,7 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" ht="21.75">
-      <c r="A22" s="326" t="s">
+      <c r="A22" s="271" t="s">
         <v>129</v>
       </c>
       <c r="B22" s="190">
@@ -17547,7 +17547,7 @@
       <c r="G25" s="160"/>
     </row>
     <row r="26" spans="1:28" s="1" customFormat="1" ht="22.5" thickBot="1">
-      <c r="A26" s="327" t="s">
+      <c r="A26" s="272" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="196">
